--- a/Cronograma&Grafico&Requisitos.xlsx
+++ b/Cronograma&Grafico&Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2DTG\Desktop\Entreterimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADC98913-8F0C-4776-8514-CF15D0F235CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D619B6E-0343-4626-AB44-907A2825A386}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{3FD0FD64-CBE7-41FA-B25D-32FBD5F87553}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>CRONOGRAMA</t>
   </si>
@@ -123,13 +123,16 @@
   </si>
   <si>
     <t>METODOLOGIA</t>
+  </si>
+  <si>
+    <t>TOTAL DE DIAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,13 +148,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -181,27 +216,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -211,6 +235,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65B442-D4C6-4C78-8136-7FAE80BA760D}">
-  <dimension ref="B2:D18"/>
+  <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,146 +590,175 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>4</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>5</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>6</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="10">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>9</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="6">
+      <c r="D16" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
         <v>10</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
+      <c r="D17" s="10">
+        <v>3</v>
+      </c>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16">
+        <f>SUM(D5:D7,D9:D11,D13:D14,D16:D17)</f>
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B8:D8"/>
@@ -719,100 +800,100 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
